--- a/Mapa Interativo/Long e Alt - Cidades/Planilha Geral Editada.xlsx
+++ b/Mapa Interativo/Long e Alt - Cidades/Planilha Geral Editada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Gomes\Documents\Programação\Meus-Projetos\Mapa Interativo\Long e Alt - Cidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC2321D-A33E-4E79-9B9F-1DA33754535A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D833D-1357-497A-8807-3B6140078F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3894FEEB-40B9-4C6B-95D1-EC5A08ED3878}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cidades!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cidades!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="243">
   <si>
     <t>UF</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Teixeira de Freitas</t>
   </si>
   <si>
-    <t>Distrito de Pau a Pique,  Casa Nova-Bahia</t>
-  </si>
-  <si>
     <t>Lauro  de Freitas</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Vila Velha</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
     <t>Águia Branca</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Cuiabá</t>
   </si>
   <si>
-    <t>Sinop</t>
-  </si>
-  <si>
     <t>Campo Novo do Parecis</t>
   </si>
   <si>
@@ -291,18 +282,12 @@
     <t>Uberaba</t>
   </si>
   <si>
-    <t>Passos</t>
-  </si>
-  <si>
     <t>Pouso Alegre</t>
   </si>
   <si>
     <t>Simonésia</t>
   </si>
   <si>
-    <t>parauapebas</t>
-  </si>
-  <si>
     <t>Aveiro</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>Catolé do Rocha</t>
   </si>
   <si>
-    <t>PATOS</t>
-  </si>
-  <si>
     <t>Maringa</t>
   </si>
   <si>
@@ -402,9 +384,6 @@
     <t>Teresina</t>
   </si>
   <si>
-    <t>Oeiras</t>
-  </si>
-  <si>
     <t>Rio de Janeiro</t>
   </si>
   <si>
@@ -438,9 +417,6 @@
     <t>Pelotas</t>
   </si>
   <si>
-    <t>Torres</t>
-  </si>
-  <si>
     <t>Viamão</t>
   </si>
   <si>
@@ -567,9 +543,6 @@
     <t>Praia Grande</t>
   </si>
   <si>
-    <t>Socorro</t>
-  </si>
-  <si>
     <t>Jundiai</t>
   </si>
   <si>
@@ -675,9 +648,6 @@
     <t xml:space="preserve">aracaju </t>
   </si>
   <si>
-    <t>Palmas</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -751,6 +721,42 @@
   </si>
   <si>
     <t>Alagoas</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>ALTITUDE</t>
+  </si>
+  <si>
+    <t>Casa Nova - BAHIA</t>
+  </si>
+  <si>
+    <t>PATOS - Paraíba</t>
+  </si>
+  <si>
+    <t>Palmas TOCANTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parauapebas </t>
+  </si>
+  <si>
+    <t>Sinop MATO GROSSO</t>
+  </si>
+  <si>
+    <t>Passos MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>Oeiras PIAUI</t>
+  </si>
+  <si>
+    <t>Socorro - SP</t>
+  </si>
+  <si>
+    <t>Torres RIO GRANDE DO SUL</t>
+  </si>
+  <si>
+    <t>Vitória - ESPIRITO SANTO</t>
   </si>
 </sst>
 </file>
@@ -821,12 +827,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,21 +1148,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D4AD9-8424-437C-83C5-D4E6006B5385}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,306 +1173,444 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>-48028121</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-15841993</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>-71432196</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-32596936</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>-47875089</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-22600068</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>SUM(F2:F192)</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-40739184</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-18984727</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>-35226351</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-7602642</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>-56083988</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-9871502</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>-52226161</v>
+      </c>
+      <c r="E8">
+        <v>-3208111</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>-51230772</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-22780727</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>-47330603</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-22739246</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>-48401662</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1374035</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>-48952576</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-16333283</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>-49245255</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-16822677</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>-37077466</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-10916206</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>-44255833</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-21911667</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>-48177310</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-21788671</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>-44777272</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-3454760</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>-40503851</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7576858</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>-55329167</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-3608764</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>-48633978</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-26992439</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>-48558349</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22490859</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>-44996741</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-12144003</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
@@ -1473,559 +1618,799 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>-39080211</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11533867</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>-46876461</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-23511218</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
+        <v>-49070586</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-22321810</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
+        <v>-48479083</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20949077</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>-48468245</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1450560</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
+        <v>-43945095</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-19922732</v>
+      </c>
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>-44788489</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2449538</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>-43410754</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-13250571</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
+        <v>-46541859</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-22952023</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
+        <v>-53200000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10333333</v>
+      </c>
+      <c r="F32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
+        <v>-42018923</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-22880437</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>-45015384</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-22666498</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>-38151687</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7938975</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>-46057214</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-22612250</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-35877129</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-7224674</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
+        <v>-47060830</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-22905560</v>
+      </c>
+      <c r="F38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>-54616295</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-20464017</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
+        <v>-57890723</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-13658735</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>-45413060</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-23620280</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <v>-49913977</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-20080447</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>-35972285</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-8282970</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>-47148309</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-21850281</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>-40973447</v>
+      </c>
+      <c r="E45" s="3">
+        <v>-9173678</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-37746967</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-6340625</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>-48538670</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-20711443</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>-47172927</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-22337512</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>-45440983</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-21189836</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>-45162747</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-10440136</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
+        <v>-47197209</v>
+      </c>
+      <c r="E51" s="3">
+        <v>-22643740</v>
+      </c>
+      <c r="F51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
+        <v>-46918889</v>
+      </c>
+      <c r="E52" s="3">
+        <v>-23603889</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
+        <v>-54102464</v>
+      </c>
+      <c r="E53" s="3">
+        <v>-27498224</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <v>-46424187</v>
+      </c>
+      <c r="E54" s="3">
+        <v>-23885798</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <v>-56099130</v>
+      </c>
+      <c r="E55" s="3">
+        <v>-15598669</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
+        <v>-49271272</v>
+      </c>
+      <c r="E56" s="3">
+        <v>-25429596</v>
+      </c>
+      <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <v>-40973447</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-9173678</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
         <v>21</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <v>-48315108</v>
+      </c>
+      <c r="E58" s="3">
+        <v>-22112464</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <v>-54812208</v>
+      </c>
+      <c r="E59" s="3">
+        <v>-22220614</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>-43309929</v>
+      </c>
+      <c r="E60" s="3">
+        <v>-22789623</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
         <v>21</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
+        <v>-46852850</v>
+      </c>
+      <c r="E61" s="3">
+        <v>-23649529</v>
+      </c>
+      <c r="F61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <v>-39012988</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-10506084</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>30</v>
@@ -2033,167 +2418,239 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <v>-39575704</v>
+      </c>
+      <c r="E63" s="3">
+        <v>-16372241</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <v>-37974281</v>
+      </c>
+      <c r="E64" s="3">
+        <v>-7862025</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <v>-43007062</v>
+      </c>
+      <c r="E65" s="3">
+        <v>-6772653</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66">
+        <v>206</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-38521799</v>
+      </c>
+      <c r="E66" s="3">
+        <v>-3730451</v>
+      </c>
+      <c r="F66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
+        <v>-54585814</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-25540148</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <v>-36493090</v>
+      </c>
+      <c r="E68" s="3">
+        <v>-8890589</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
+        <v>-49253269</v>
+      </c>
+      <c r="E69" s="3">
+        <v>-16680882</v>
+      </c>
+      <c r="F69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <v>-42779943</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-14223066</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <v>-47976816</v>
+      </c>
+      <c r="E71" s="3">
+        <v>-15823563</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <v>-45190893</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22805784</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
+        <v>-46524459</v>
+      </c>
+      <c r="E73" s="3">
+        <v>-23443060</v>
+      </c>
+      <c r="F73">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
         <v>21</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <v>-47220000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>-22858330</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>32</v>
@@ -2201,391 +2658,559 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <v>-42217248</v>
+      </c>
+      <c r="E75" s="3">
+        <v>-12649377</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
+        <v>-53919960</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-28388048</v>
+      </c>
+      <c r="F76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
         <v>21</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3">
+        <v>-47218060</v>
+      </c>
+      <c r="E77" s="3">
+        <v>-23090280</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
+        <v>-42527080</v>
+      </c>
+      <c r="E78" s="3">
+        <v>-19477781</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3">
+        <v>-43775322</v>
+      </c>
+      <c r="E79" s="3">
+        <v>-22862960</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
         <v>21</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <v>-46399609</v>
+      </c>
+      <c r="E80" s="3">
+        <v>-23501765</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
+        <v>-45452416</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-22423823</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
         <v>21</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <v>-46849244</v>
+      </c>
+      <c r="E82" s="3">
+        <v>-23717630</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="3">
+        <v>-48048326</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-23588607</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="3">
+        <v>-46933889</v>
+      </c>
+      <c r="E84" s="3">
+        <v>-23548880</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
+        <v>-46821667</v>
+      </c>
+      <c r="E85" s="3">
+        <v>-22436111</v>
+      </c>
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-46351403</v>
+      </c>
+      <c r="E86" s="3">
+        <v>-23475449</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C87" t="s">
         <v>21</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
+        <v>-46841204</v>
+      </c>
+      <c r="E87" s="3">
+        <v>-22996586</v>
+      </c>
+      <c r="F87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
+        <v>-47298892</v>
+      </c>
+      <c r="E88" s="3">
+        <v>-23263883</v>
+      </c>
+      <c r="F88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="3">
+        <v>-50193488</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19727273</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3">
+        <v>-34946872</v>
+      </c>
+      <c r="E90" s="3">
+        <v>-8175248</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="3">
+        <v>-43745277</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19521667</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="3">
+        <v>-49077806</v>
+      </c>
+      <c r="E92" s="3">
+        <v>-26489743</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3">
+        <v>-36773604</v>
+      </c>
+      <c r="E93" s="3">
+        <v>-6590430</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
+        <v>-40071963</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13860403</v>
+      </c>
+      <c r="F94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-34882028</v>
+      </c>
+      <c r="E95" s="3">
+        <v>-7121598</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
+        <v>-48848673</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-26304490</v>
+      </c>
+      <c r="F96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="3">
+        <v>-43350113</v>
+      </c>
+      <c r="E97" s="3">
+        <v>-21760953</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
+        <v>-46884512</v>
+      </c>
+      <c r="E98" s="3">
+        <v>-23188787</v>
+      </c>
+      <c r="F98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="3">
+        <v>-38312769</v>
+      </c>
+      <c r="E99" s="3">
+        <v>-12892420</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
         <v>21</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
+        <v>-47401766</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-22561507</v>
+      </c>
+      <c r="F100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
+        <v>-35440154</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-7872599</v>
+      </c>
+      <c r="F101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
+        <v>-41786692</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22371296</v>
+      </c>
+      <c r="F102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
@@ -2593,27 +3218,39 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
+        <v>-35733926</v>
+      </c>
+      <c r="E103" s="3">
+        <v>-9647684</v>
+      </c>
+      <c r="F103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3">
+        <v>-35512664</v>
+      </c>
+      <c r="E104" s="3">
+        <v>-7687700</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>26</v>
@@ -2621,27 +3258,39 @@
       <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="3">
+        <v>-59982504</v>
+      </c>
+      <c r="E105" s="3">
+        <v>-3131633</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="3">
+        <v>-42034077</v>
+      </c>
+      <c r="E106" s="3">
+        <v>-20257443</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>31</v>
@@ -2649,517 +3298,739 @@
       <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3">
+        <v>-40433052</v>
+      </c>
+      <c r="E107" s="3">
+        <v>-13440890</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3">
+        <v>-51938208</v>
+      </c>
+      <c r="E108" s="3">
+        <v>-23425269</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
-      </c>
-      <c r="D109">
+        <v>206</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-40342311</v>
+      </c>
+      <c r="E109" s="3">
+        <v>-3523906</v>
+      </c>
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <v>-46461692</v>
+      </c>
+      <c r="E110" s="3">
+        <v>-23666953</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="3">
+        <v>-46192667</v>
+      </c>
+      <c r="E111" s="3">
+        <v>-23523428</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
+        <v>-46942500</v>
+      </c>
+      <c r="E112" s="3">
+        <v>-22372222</v>
+      </c>
+      <c r="F112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <v>-46958163</v>
+      </c>
+      <c r="E113" s="3">
+        <v>-22433009</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
+        <v>-54072769</v>
+      </c>
+      <c r="E114" s="3">
+        <v>-1998911</v>
+      </c>
+      <c r="F114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
+        <v>-35208090</v>
+      </c>
+      <c r="E115" s="3">
+        <v>-5805398</v>
+      </c>
+      <c r="F115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="3">
+        <v>-43115455</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-22883237</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3">
+        <v>-53348062</v>
+      </c>
+      <c r="E117" s="3">
+        <v>-22247757</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3">
+        <v>-56084926</v>
+      </c>
+      <c r="E118" s="3">
+        <v>-13825501</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
+        <v>-53090112</v>
+      </c>
+      <c r="E119" s="3">
+        <v>-23469940</v>
+      </c>
+      <c r="F119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
+        <v>-51609200</v>
+      </c>
+      <c r="E120" s="3">
+        <v>-28784938</v>
+      </c>
+      <c r="F120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <v>-51142904</v>
+      </c>
+      <c r="E121" s="3">
+        <v>-29690570</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
+        <v>-42129938</v>
+      </c>
+      <c r="E122" s="3">
+        <v>-7010991</v>
+      </c>
+      <c r="F122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
+        <v>-46791680</v>
+      </c>
+      <c r="E123" s="3">
+        <v>-23532486</v>
+      </c>
+      <c r="F123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D124" s="3">
+        <v>-38618038</v>
+      </c>
+      <c r="E124" s="3">
+        <v>-3984100</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
+        <v>-48333779</v>
+      </c>
+      <c r="E125" s="3">
+        <v>-10183560</v>
+      </c>
+      <c r="F125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
+        <v>-53840546</v>
+      </c>
+      <c r="E126" s="3">
+        <v>-24283993</v>
+      </c>
+      <c r="F126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
+        <v>-46870751</v>
+      </c>
+      <c r="E127" s="3">
+        <v>-17217406</v>
+      </c>
+      <c r="F127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="3">
+        <v>-49890328</v>
+      </c>
+      <c r="E128" s="3">
+        <v>-6069685</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3">
+        <v>-37862152</v>
+      </c>
+      <c r="E129" s="3">
+        <v>-10682892</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="3">
+        <v>-41766195</v>
+      </c>
+      <c r="E130" s="3">
+        <v>-2914751</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3">
+        <v>-46609451</v>
+      </c>
+      <c r="E131" s="3">
+        <v>-20719162</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>219</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="D132" s="3">
+        <v>-37276682</v>
+      </c>
+      <c r="E132" s="3">
+        <v>-7025829</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
+        <v>-47153221</v>
+      </c>
+      <c r="E133" s="3">
+        <v>-22763039</v>
+      </c>
+      <c r="F133">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
+        <v>-46894846</v>
+      </c>
+      <c r="E134" s="3">
+        <v>-22741347</v>
+      </c>
+      <c r="F134">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
       </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="3">
+        <v>-52341016</v>
+      </c>
+      <c r="E135" s="3">
+        <v>-31769974</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="3">
+        <v>-40496887</v>
+      </c>
+      <c r="E136" s="3">
+        <v>-9381733</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="3">
+        <v>-43192613</v>
+      </c>
+      <c r="E137" s="3">
+        <v>-22519963</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
+        <v>-47649170</v>
+      </c>
+      <c r="E138" s="3">
+        <v>-22725280</v>
+      </c>
+      <c r="F138">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="3">
+        <v>-47655570</v>
+      </c>
+      <c r="E139" s="3">
+        <v>-15618195</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="3">
+        <v>-51230377</v>
+      </c>
+      <c r="E140" s="3">
+        <v>-30032500</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
+        <v>-55139576</v>
+      </c>
+      <c r="E141" s="3">
+        <v>-27906146</v>
+      </c>
+      <c r="F141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="3">
+        <v>-45932724</v>
+      </c>
+      <c r="E142" s="3">
+        <v>-22234386</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
+        <v>-46402778</v>
+      </c>
+      <c r="E143" s="3">
+        <v>-24005833</v>
+      </c>
+      <c r="F143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>27</v>
@@ -3167,125 +4038,179 @@
       <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
+        <v>-60023666</v>
+      </c>
+      <c r="E144" s="3">
+        <v>-2048636</v>
+      </c>
+      <c r="F144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
+        <v>-34884819</v>
+      </c>
+      <c r="E145" s="3">
+        <v>-8058493</v>
+      </c>
+      <c r="F145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="3">
+        <v>-43049166</v>
+      </c>
+      <c r="E146" s="3">
+        <v>-16006667</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C147" t="s">
         <v>21</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
+        <v>-47806667</v>
+      </c>
+      <c r="E147" s="3">
+        <v>-21178333</v>
+      </c>
+      <c r="F147">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
       </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="3">
+        <v>-50790534</v>
+      </c>
+      <c r="E148" s="3">
+        <v>-25726644</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
+        <v>-43209373</v>
+      </c>
+      <c r="E149" s="3">
+        <v>-22911014</v>
+      </c>
+      <c r="F149">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="3">
+        <v>-52099130</v>
+      </c>
+      <c r="E150" s="3">
+        <v>-32033425</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="3">
+        <v>-50919122</v>
+      </c>
+      <c r="E151" s="3">
+        <v>-17792126</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="3">
+        <v>-47291368</v>
+      </c>
+      <c r="E152" s="3">
+        <v>-23198998</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>28</v>
@@ -3293,209 +4218,299 @@
       <c r="C153" t="s">
         <v>6</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
+        <v>-88914068</v>
+      </c>
+      <c r="E153" s="3">
+        <v>13800038</v>
+      </c>
+      <c r="F153">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>21</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
+        <v>-47506277</v>
+      </c>
+      <c r="E154" s="3">
+        <v>-22803584</v>
+      </c>
+      <c r="F154">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
       </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="3">
+        <v>-46227190</v>
+      </c>
+      <c r="E155" s="3">
+        <v>-23319422</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="3">
+        <v>54772758</v>
+      </c>
+      <c r="E156" s="3">
+        <v>-2451504</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
+        <v>-46492890</v>
+      </c>
+      <c r="E157" s="3">
+        <v>-23710303</v>
+      </c>
+      <c r="F157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
+        <v>-46333889</v>
+      </c>
+      <c r="E158" s="3">
+        <v>-23960833</v>
+      </c>
+      <c r="F158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
+        <v>-46550675</v>
+      </c>
+      <c r="E159" s="3">
+        <v>-23708035</v>
+      </c>
+      <c r="F159">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
       </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="3">
+        <v>-46568832</v>
+      </c>
+      <c r="E160" s="3">
+        <v>-23619592</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
         <v>21</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
+        <v>-47890932</v>
+      </c>
+      <c r="E161" s="3">
+        <v>-22018337</v>
+      </c>
+      <c r="F161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
         <v>21</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
+        <v>-46788172</v>
+      </c>
+      <c r="E162" s="3">
+        <v>-21977814</v>
+      </c>
+      <c r="F162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="3">
+        <v>-46887303</v>
+      </c>
+      <c r="E163" s="3">
+        <v>-21595288</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="3">
+        <v>-49380421</v>
+      </c>
+      <c r="E164" s="3">
+        <v>-20812585</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C163" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C164" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C165" t="s">
         <v>21</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
+        <v>-45887297</v>
+      </c>
+      <c r="E165" s="3">
+        <v>-23180501</v>
+      </c>
+      <c r="F165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C166" t="s">
         <v>19</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="3">
+        <v>-51151650</v>
+      </c>
+      <c r="E166" s="3">
+        <v>-29754441</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3">
+        <v>-44244872</v>
+      </c>
+      <c r="E167" s="3">
+        <v>-2563461</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>25</v>
@@ -3503,153 +4518,219 @@
       <c r="C168" t="s">
         <v>4</v>
       </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="3">
+        <v>-36096780</v>
+      </c>
+      <c r="E168" s="3">
+        <v>-9783112</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
+        <v>-46633382</v>
+      </c>
+      <c r="E169" s="3">
+        <v>-23550651</v>
+      </c>
+      <c r="F169">
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="3">
+        <v>-52618486</v>
+      </c>
+      <c r="E170" s="3">
+        <v>-25691553</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C171" t="s">
         <v>21</v>
       </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="3">
+        <v>-47991374</v>
+      </c>
+      <c r="E171" s="3">
+        <v>-21137578</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="3">
+        <v>-44246944</v>
+      </c>
+      <c r="E172" s="3">
+        <v>-19466111</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
+        <v>-42002429</v>
+      </c>
+      <c r="E173" s="3">
+        <v>-20123384</v>
+      </c>
+      <c r="F173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="C174" t="s">
         <v>10</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="3">
+        <v>-55517596</v>
+      </c>
+      <c r="E174" s="3">
+        <v>-11850822</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
+        <v>-35115191</v>
+      </c>
+      <c r="E175" s="3">
+        <v>-8592296</v>
+      </c>
+      <c r="F175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
+        <v>-46524911</v>
+      </c>
+      <c r="E176" s="3">
+        <v>-22590262</v>
+      </c>
+      <c r="F176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C177" t="s">
         <v>21</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
+        <v>-47267105</v>
+      </c>
+      <c r="E177" s="3">
+        <v>-22821796</v>
+      </c>
+      <c r="F177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C178" t="s">
         <v>21</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
+        <v>-46779054</v>
+      </c>
+      <c r="E178" s="3">
+        <v>-23612191</v>
+      </c>
+      <c r="F178">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>33</v>
@@ -3657,27 +4738,39 @@
       <c r="C179" t="s">
         <v>6</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
+        <v>-39098647</v>
+      </c>
+      <c r="E179" s="3">
+        <v>-13537334</v>
+      </c>
+      <c r="F179">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
         <v>21</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="3">
+        <v>-45561279</v>
+      </c>
+      <c r="E180" s="3">
+        <v>-23031448</v>
+      </c>
+      <c r="F180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>34</v>
@@ -3685,167 +4778,239 @@
       <c r="C181" t="s">
         <v>6</v>
       </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="3">
+        <v>-39745810</v>
+      </c>
+      <c r="E181" s="3">
+        <v>-17537664</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
+        <v>-42809588</v>
+      </c>
+      <c r="E182" s="3">
+        <v>-5089640</v>
+      </c>
+      <c r="F182">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="C183" t="s">
         <v>19</v>
       </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="3">
+        <v>-49729965</v>
+      </c>
+      <c r="E183" s="3">
+        <v>-29337366</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="3">
+        <v>-47936666</v>
+      </c>
+      <c r="E184" s="3">
+        <v>-19750833</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="3">
+        <v>-48276784</v>
+      </c>
+      <c r="E185" s="3">
+        <v>-18918804</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C186" t="s">
         <v>21</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="3">
+        <v>-46995830</v>
+      </c>
+      <c r="E186" s="3">
+        <v>-22970560</v>
+      </c>
+      <c r="F186">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
       </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="3">
+        <v>-45434067</v>
+      </c>
+      <c r="E187" s="3">
+        <v>-21556591</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
         <v>19</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="3">
+        <v>-51026193</v>
+      </c>
+      <c r="E188" s="3">
+        <v>-30081934</v>
+      </c>
+      <c r="F188">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D189" s="3">
+        <v>-40292028</v>
+      </c>
+      <c r="E189" s="3">
+        <v>-20329729</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="3">
+        <v>-46974985</v>
+      </c>
+      <c r="E190" s="3">
+        <v>-23029854</v>
+      </c>
+      <c r="F190">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D191" s="3">
+        <v>-40337668</v>
+      </c>
+      <c r="E191" s="3">
+        <v>-20320092</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="3">
+        <v>-44104013</v>
+      </c>
+      <c r="E192" s="3">
+        <v>-22522550</v>
+      </c>
+      <c r="F192">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D192" xr:uid="{F9E54B10-1CDF-40F0-98FB-295CDB43C214}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D192">
+  <autoFilter ref="A1:F192" xr:uid="{F9E54B10-1CDF-40F0-98FB-295CDB43C214}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F192">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
